--- a/ML_CS7641/Optimization/FilpFlop-prob_size=50/final/result-FilpFlop-prob_size=50.xlsx
+++ b/ML_CS7641/Optimization/FilpFlop-prob_size=50/final/result-FilpFlop-prob_size=50.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.308192014694214</v>
+        <v>2.282057046890259</v>
       </c>
       <c r="C2" t="n">
         <v>47</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06379985809326172</v>
+        <v>0.06202268600463867</v>
       </c>
       <c r="C3" t="n">
         <v>45</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.972110271453857</v>
+        <v>9.092475891113281</v>
       </c>
       <c r="C4" t="n">
         <v>48</v>
